--- a/examples/packing/data.xlsx
+++ b/examples/packing/data.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -361,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -379,281 +379,91 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>-10</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <f>A2^2</f>
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>-9</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B12" si="0">A3^2</f>
-        <v>81</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>-8</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
-        <v>64</v>
+        <f>B2+B3</f>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>-7</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
-        <v>49</v>
+        <f t="shared" ref="B5:B11" si="0">B3+B4</f>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>-6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>-5</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>-4</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>-3</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>-2</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <f>A13^2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14">
-        <f t="shared" ref="B14:B22" si="1">A14^2</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>5</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>6</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>7</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>8</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>9</v>
-      </c>
-      <c r="B21">
-        <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>10</v>
-      </c>
-      <c r="B22">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>11</v>
-      </c>
-      <c r="B23">
-        <f t="shared" ref="B23:B32" si="2">A23^2</f>
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>12</v>
-      </c>
-      <c r="B24">
-        <f t="shared" si="2"/>
-        <v>144</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>13</v>
-      </c>
-      <c r="B25">
-        <f t="shared" si="2"/>
-        <v>169</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>14</v>
-      </c>
-      <c r="B26">
-        <f t="shared" si="2"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>15</v>
-      </c>
-      <c r="B27">
-        <f t="shared" si="2"/>
-        <v>225</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>16</v>
-      </c>
-      <c r="B28">
-        <f t="shared" si="2"/>
-        <v>256</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>17</v>
-      </c>
-      <c r="B29">
-        <f t="shared" si="2"/>
-        <v>289</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>18</v>
-      </c>
-      <c r="B30">
-        <f t="shared" si="2"/>
-        <v>324</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>19</v>
-      </c>
-      <c r="B31">
-        <f t="shared" si="2"/>
-        <v>361</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>20</v>
-      </c>
-      <c r="B32">
-        <f t="shared" si="2"/>
-        <v>400</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
